--- a/data/STAT.xlsx
+++ b/data/STAT.xlsx
@@ -345,7 +345,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D55"/>
+  <dimension ref="A1:G55"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -371,6 +371,21 @@
       </c>
       <c r="D1" t="inlineStr">
         <is>
+          <t>Corequisites</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>Concurrent</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>Recommended</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
           <t>Terms Typically Offered</t>
         </is>
       </c>
@@ -388,10 +403,25 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>MATH 96; or MATH 115; or appropriate Math Placement Level.</t>
+          <t>MATH 96; or MATH 115; or appropriate Math Placement Level.</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
         <is>
           <t>F, W, SP</t>
         </is>
@@ -415,6 +445,21 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
           <t>F</t>
         </is>
       </c>
@@ -437,6 +482,21 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
           <t>F, W, SP</t>
         </is>
       </c>
@@ -454,10 +514,25 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>MATH 96; or MATH 115; or appropriate Math Placement Level.</t>
+          <t>MATH 96; or MATH 115; or appropriate Math Placement Level.</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
         <is>
           <t>F,W,SP,SU</t>
         </is>
@@ -476,10 +551,25 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>MATH 96; or MATH 115; or appropriate Math Placement Level.</t>
+          <t>MATH 96; or MATH 115; or appropriate Math Placement Level.</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
         <is>
           <t>F,W,SP,SU</t>
         </is>
@@ -498,10 +588,25 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Appropriate Math Placement Level or MATH 118.</t>
+          <t>Appropriate Math Placement Level or MATH 118.</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
         <is>
           <t>F, W, SP</t>
         </is>
@@ -520,10 +625,25 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>STAT 251 with a minimum grade of C- or consent of instructor.</t>
+          <t>STAT 251 with a minimum grade of C- or consent of instructor.</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
         <is>
           <t>F, W, SP</t>
         </is>
@@ -547,6 +667,21 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
           <t>TBD</t>
         </is>
       </c>
@@ -569,7 +704,22 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>F, WCorequisite: MATH 141.</t>
+          <t>MATH 141.</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>F, W</t>
         </is>
       </c>
     </row>
@@ -586,10 +736,25 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>STAT 301.</t>
+          <t>STAT 301.</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
         <is>
           <t>W, SP</t>
         </is>
@@ -608,10 +773,25 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>one of the following: BUS 392, CPE/CSC 101, CSC 232, CPE/CSC 235, ECON 395, or STAT 331; and MATH 142.</t>
+          <t>one of the BUS 392, CPE/CSC 101, CSC 232, CPE/CSC 235, ECON 395, or STAT 331; and MATH 142.</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
         <is>
           <t>F, W</t>
         </is>
@@ -630,10 +810,25 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>MATH 142.</t>
+          <t>MATH 142.</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
         <is>
           <t>F,W,SP,SU</t>
         </is>
@@ -652,10 +847,25 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>STAT 217, STAT 218, STAT 312, or STAT 542; and MATH 118 or appropriate Math Placement Level.</t>
+          <t>STAT 217, STAT 218, STAT 312, or STAT 542; and MATH 118 or appropriate Math Placement Level.</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
         <is>
           <t>F, W, SP</t>
         </is>
@@ -674,10 +884,25 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>STAT 218.</t>
+          <t>STAT 218.</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
         <is>
           <t>F, W</t>
         </is>
@@ -696,10 +921,25 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>MATH 142.</t>
+          <t>MATH 142.</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
         <is>
           <t>F, W, SP</t>
         </is>
@@ -718,10 +958,25 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>IME 326 or STAT 252 or STAT 302 or STAT 312 or STAT 313.</t>
+          <t>IME 326 or STAT 252 or STAT 302 or STAT 312 or STAT 313.</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
         <is>
           <t>W, SP</t>
         </is>
@@ -740,10 +995,25 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>IME 326 or STAT 252 or STAT 302 or STAT 312 or STAT 313.</t>
+          <t>IME 326 or STAT 252 or STAT 302 or STAT 312 or STAT 313.</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
         <is>
           <t>F, W</t>
         </is>
@@ -762,10 +1032,25 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>IME 326 or STAT 252 or STAT 302 or STAT 312 or STAT 313.</t>
+          <t>IME 326 or STAT 252 or STAT 302 or STAT 312 or STAT 313.</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
         <is>
           <t>F, W</t>
         </is>
@@ -784,10 +1069,25 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>one of the following: IME 326, STAT 252, STAT 302, STAT 312, or STAT 313; and one of the following: BUS 392, CPE/CSC 101, CPE/CSC 235, ECON 395, or STAT 330.</t>
+          <t>one of the IME 326, STAT 252, STAT 302, STAT 312, or STAT 313; and one of the BUS 392, CPE/CSC 101, CPE/CSC 235, ECON 395, or STAT 330.</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
         <is>
           <t>F, W, SP</t>
         </is>
@@ -806,10 +1106,25 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>one of the following: STAT 252, STAT 302, STAT 312, STAT 313, or IME 326; and one of the following: MATH 206, or MATH 244.</t>
+          <t>one of the STAT 252, STAT 302, STAT 312, STAT 313, or IME 326; and one of the MATH 206, or MATH 244.</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
         <is>
           <t>SP</t>
         </is>
@@ -828,10 +1143,25 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>MATH 241, EE 228.</t>
+          <t>MATH 241, EE 228.</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
         <is>
           <t>F, W, SP</t>
         </is>
@@ -850,10 +1180,25 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Completion of GE Areas A1 and A3 with grades of C- or better; and one of the following: STAT 252, STAT 302, or STAT 313.</t>
+          <t>Completion of GE Areas A1 and A3 with grades of C- or better; and one of the STAT 252, STAT 302, or STAT 313.</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
         <is>
           <t>SP</t>
         </is>
@@ -877,6 +1222,21 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
           <t>F, W, SP</t>
         </is>
       </c>
@@ -894,10 +1254,25 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>CPE/CSC 101 or CSC 232 or CPE/CSC 235; MATH 206 or MATH 244; and STAT 305 or STAT 350 or STAT 426.</t>
+          <t>CPE/CSC 101 or CSC 232 or CPE/CSC 235; MATH 206 or MATH 244; and STAT 305 or STAT 350 or STAT 426.</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
         <is>
           <t>SP</t>
         </is>
@@ -916,10 +1291,25 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>one of the following: STAT 130, STAT 217, STAT 218, STAT 251, STAT 301, STAT 312, STAT 321, STAT 511, STAT 512 or STAT 542.</t>
+          <t>one of the STAT 130, STAT 217, STAT 218, STAT 251, STAT 301, STAT 312, STAT 321, STAT 511, STAT 512 or STAT 542.</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
         <is>
           <t>SP</t>
         </is>
@@ -938,10 +1328,25 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>STAT 324 or STAT 334 or STAT 524.</t>
+          <t>STAT 324 or STAT 334 or STAT 524.</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
         <is>
           <t>F</t>
         </is>
@@ -960,12 +1365,27 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>one of the following: IME 326, STAT 252, STAT 302, STAT 312, STAT 313, or STAT 513; and one of the following: STAT 305, STAT 350, or STAT 425. Recommended: STAT 331.</t>
+          <t>one of the IME 326, STAT 252, STAT 302, STAT 312, STAT 313, or STAT 513; and one of the STAT 305, STAT 350, or STAT 425.</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>STAT 331.</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t xml:space="preserve">W </t>
         </is>
       </c>
     </row>
@@ -982,10 +1402,25 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>STAT 324 or STAT 334 or STAT 524.</t>
+          <t>STAT 324 or STAT 334 or STAT 524.</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
         <is>
           <t>F</t>
         </is>
@@ -1004,10 +1439,25 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>IME 326 or STAT 252 or STAT 302 or STAT 312 or STAT 313; and MATH 142.</t>
+          <t>IME 326 or STAT 252 or STAT 302 or STAT 312 or STAT 313; and MATH 142.</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
         <is>
           <t>W</t>
         </is>
@@ -1026,10 +1476,25 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>STAT 324 or STAT 334 or STAT 524.</t>
+          <t>STAT 324 or STAT 334 or STAT 524.</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
         <is>
           <t>W</t>
         </is>
@@ -1048,10 +1513,25 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>One of the following: IME 326, STAT 252, STAT 302, STAT 312, STAT 313, STAT 513, or STAT 542; and one of the following: MATH 206, MATH 244, or graduate standing.</t>
+          <t>One of the IME 326, STAT 252, STAT 302, STAT 312, STAT 313, STAT 513, or STAT 542; and one of the MATH 206, MATH 244, or graduate standing.</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
         <is>
           <t>SP</t>
         </is>
@@ -1070,10 +1550,25 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>IME 326 or STAT 252 or STAT 302 or STAT 312 or STAT 313 or STAT 511 or STAT 512 or STAT 513.</t>
+          <t>IME 326 or STAT 252 or STAT 302 or STAT 312 or STAT 313 or STAT 511 or STAT 512 or STAT 513.</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
         <is>
           <t>F</t>
         </is>
@@ -1092,10 +1587,25 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>STAT 323 or STAT 523.</t>
+          <t>STAT 323 or STAT 523.</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
         <is>
           <t>SP</t>
         </is>
@@ -1114,12 +1624,27 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>MATH 241; MATH 248 or CSC 348; and STAT 305. Recommended: STAT 301.</t>
+          <t>MATH 241; MATH 248 or CSC 348; and STAT 305.</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>STAT 301.</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t xml:space="preserve">F </t>
         </is>
       </c>
     </row>
@@ -1136,12 +1661,27 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>STAT 425. Recommended: STAT 302.</t>
+          <t>STAT 425.</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>STAT 302.</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t xml:space="preserve">W </t>
         </is>
       </c>
     </row>
@@ -1158,10 +1698,25 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>STAT 426.</t>
+          <t>STAT 426.</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
         <is>
           <t>SP</t>
         </is>
@@ -1180,10 +1735,25 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>STAT 331.</t>
+          <t>STAT 331.</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
         <is>
           <t>TBD</t>
         </is>
@@ -1202,12 +1772,27 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>one of the following: STAT 324, STAT 334, or STAT 524. Recommended: STAT 331 or STAT 531.</t>
+          <t>one of the STAT 324, STAT 334, or STAT 524.</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>SP</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>STAT 331 or STAT 531.</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t xml:space="preserve">SP </t>
         </is>
       </c>
     </row>
@@ -1224,10 +1809,25 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>STAT 330.</t>
+          <t>STAT 330.</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
         <is>
           <t>W</t>
         </is>
@@ -1246,10 +1846,25 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>STAT 440.</t>
+          <t>STAT 440.</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
         <is>
           <t>SP</t>
         </is>
@@ -1273,6 +1888,21 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
           <t>F, W, SP</t>
         </is>
       </c>
@@ -1295,6 +1925,21 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
           <t>F, W, SP</t>
         </is>
       </c>
@@ -1312,10 +1957,25 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>STAT 323; STAT 330; STAT 331; STAT 334; STAT 365; Statistics major; and senior standing.</t>
+          <t>STAT 323; STAT 330; STAT 331; STAT 334; STAT 365; Statistics major; and senior standing.</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
         <is>
           <t>F, SP</t>
         </is>
@@ -1339,6 +1999,21 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
           <t>TBD</t>
         </is>
       </c>
@@ -1361,6 +2036,21 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
           <t>F, W, SP</t>
         </is>
       </c>
@@ -1383,6 +2073,21 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
           <t>F, W, SP</t>
         </is>
       </c>
@@ -1405,6 +2110,21 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
           <t>F</t>
         </is>
       </c>
@@ -1422,10 +2142,25 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Graduate standing and one of the following: STAT 217, STAT 218, STAT 252, STAT 312, STAT 511, STAT 512, or STAT 542.</t>
+          <t>Graduate standing and one of the STAT 217, STAT 218, STAT 252, STAT 312, STAT 511, STAT 512, or STAT 542.</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
         <is>
           <t>F, W, SP</t>
         </is>
@@ -1444,10 +2179,25 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>one of the following: IME 326, STAT 252, STAT 302, STAT 312, STAT 313, STAT 513, or STAT 542; and graduate standing.</t>
+          <t>one of the IME 326, STAT 252, STAT 302, STAT 312, STAT 313, STAT 513, or STAT 542; and graduate standing.</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
         <is>
           <t>W, SP</t>
         </is>
@@ -1466,10 +2216,25 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>one of the following: IME 326, STAT 252, STAT 302, STAT 312, STAT 313, STAT 513, or STAT 542; and graduate standing.</t>
+          <t>one of the IME 326, STAT 252, STAT 302, STAT 312, STAT 313, STAT 513, or STAT 542; and graduate standing.</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
         <is>
           <t>F, W, SP</t>
         </is>
@@ -1488,10 +2253,25 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>STAT 511 or STAT 512 or STAT 513 or STAT 542.</t>
+          <t>STAT 511 or STAT 512 or STAT 513 or STAT 542.</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
         <is>
           <t>F, W</t>
         </is>
@@ -1510,10 +2290,25 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>Graduate standing, STAT 513 or STAT 542, and one computer programming course; or consent of instructor.</t>
+          <t>Graduate standing, STAT 513 or STAT 542, and one computer programming course; or consent of instructor.</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
         <is>
           <t>F, W, SP</t>
         </is>
@@ -1532,10 +2327,25 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>MATH 142 and graduate standing.</t>
+          <t>MATH 142 and graduate standing.</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
         <is>
           <t>F,W,SP,SU</t>
         </is>
@@ -1558,6 +2368,21 @@
         </is>
       </c>
       <c r="D55" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
         <is>
           <t>TBD</t>
         </is>
